--- a/SF_Documents/tarifas.xlsx
+++ b/SF_Documents/tarifas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="28395" windowHeight="12270" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="28395" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Costo desarrollo" sheetId="1" r:id="rId1"/>
@@ -55,27 +55,6 @@
     <t>Consultoria y servicio de soluciones para software de terceros para utilizacion  componentes framewor Fwk</t>
   </si>
   <si>
-    <t xml:space="preserve">Configuracion y armado de servicio SOA 
-Metadata de servicio
-Config de seguridad 
-Config Logueo
-Config de blocking transaccioonal
-Configuracion de bloque administrador de configuracion
-Herramientas admin de metadata de servicio
-Visores de errores
-</t>
-  </si>
-  <si>
-    <t>Desarrollo de servicios
-Interfaz de servicios
-Registro
-Logica de negocio
-Acceso a datos 
-Desarrollo de store procedures
-Esquema de datos
-etc</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -202,6 +181,27 @@
 Servicios MSMQ + WCF + procesamiento por lotes
 Servicios Socket Listeners 
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuracion y armado de servicio SOA 
+Metadata de servicio
+Config de seguridad 
+Config Logueo
+Config de blocking transaccional
+Configuracion de bloque administrador de configuracion
+Herramientas admin de metadata de servicio
+Visores de errores
+</t>
+  </si>
+  <si>
+    <t>Desarrollo de servicios
+Interfaz de servicios
+Registro en metadata
+Logica de negocio
+Acceso a datos 
+Desarrollo de store procedures
+Esquema de datos
+etc</t>
   </si>
 </sst>
 </file>
@@ -371,25 +371,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -700,8 +700,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="90">
-      <c r="A1" s="14" t="s">
-        <v>45</v>
+      <c r="A1" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -726,169 +726,169 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="75">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="16">
-        <f>300*$B$3</f>
-        <v>300</v>
-      </c>
-      <c r="D9" s="16">
+      <c r="C9" s="14">
+        <f>100*$B$3</f>
+        <v>100</v>
+      </c>
+      <c r="D9" s="14">
         <f>C9*$B$3</f>
-        <v>300</v>
-      </c>
-      <c r="E9" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="100.5" customHeight="1">
-      <c r="B10" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="16">
+      <c r="C10" s="14">
+        <v>45</v>
+      </c>
+      <c r="D10" s="14">
         <f>C10*$B$3</f>
         <v>45</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="188.25" customHeight="1">
-      <c r="B11" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="16">
+      <c r="B11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="14">
         <v>60</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <f>C11*$B$3</f>
         <v>60</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.5" customHeight="1">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>40</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <f>C12*$B$3</f>
         <v>40</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="46.5" customHeight="1">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>40</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <f t="shared" ref="D13:D20" si="0">C13*$B$3</f>
         <v>40</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30">
-      <c r="B14" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="16">
+      <c r="B14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="14">
         <v>55</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5" ht="30">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="14">
         <v>0</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="2:5" ht="30">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="14">
         <v>60</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="14">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="2:5" ht="135">
-      <c r="B19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="16">
+      <c r="B19" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="14">
         <v>1000</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="14">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="120">
-      <c r="B20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="16">
+      <c r="B20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="14">
         <v>32</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="14">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="14" t="s">
         <v>2</v>
       </c>
     </row>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -925,16 +925,16 @@
     <row r="4" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:5" ht="15.75" thickBot="1">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
@@ -942,10 +942,10 @@
     </row>
     <row r="6" spans="1:5" ht="90.75" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="7">
         <v>1300</v>
@@ -960,10 +960,10 @@
     </row>
     <row r="7" spans="1:5" ht="45.75" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7">
         <v>100</v>
@@ -978,10 +978,10 @@
     </row>
     <row r="8" spans="1:5" ht="52.5" customHeight="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>100</v>
@@ -996,10 +996,10 @@
     </row>
     <row r="9" spans="1:5" ht="101.25" customHeight="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6">
         <v>100</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="10" spans="1:5" ht="36.75" customHeight="1" thickBot="1">
       <c r="A10" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8">
@@ -1030,10 +1030,10 @@
     </row>
     <row r="11" spans="1:5" ht="77.25" customHeight="1" thickBot="1">
       <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="C11" s="7">
         <v>40</v>
@@ -1048,10 +1048,10 @@
     </row>
     <row r="12" spans="1:5" ht="42" customHeight="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="6">
         <v>50</v>
@@ -1065,13 +1065,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="96" customHeight="1" thickBot="1">
-      <c r="A13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="A13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="16">
         <v>42</v>
       </c>
       <c r="D13" s="7">
@@ -1083,9 +1083,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" hidden="1" thickBot="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1094,10 +1094,10 @@
     </row>
     <row r="15" spans="1:5" ht="45.75" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7">
         <v>50</v>
@@ -1112,10 +1112,10 @@
     </row>
     <row r="16" spans="1:5" ht="30.75" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7">
         <v>150</v>
@@ -1130,58 +1130,58 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="21" spans="1:3" ht="20.25" thickBot="1">
-      <c r="A21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>33</v>
+      <c r="A21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1">
       <c r="A22" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30.75" thickBot="1">
       <c r="A24" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30.75" thickBot="1">
       <c r="A25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/SF_Documents/tarifas.xlsx
+++ b/SF_Documents/tarifas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="28395" windowHeight="12270"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="28395" windowHeight="12270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Costo desarrollo" sheetId="1" r:id="rId1"/>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -919,7 +919,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.0900000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1"/>
@@ -952,7 +952,7 @@
       </c>
       <c r="D6" s="7">
         <f>C6*$B$2</f>
-        <v>1417</v>
+        <v>1300</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>1</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="D7" s="7">
         <f t="shared" ref="D7:D16" si="0">C7*$B$2</f>
-        <v>109.00000000000001</v>
+        <v>100</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>1</v>
@@ -988,7 +988,7 @@
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>109.00000000000001</v>
+        <v>100</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>1</v>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>109.00000000000001</v>
+        <v>100</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>1</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
-        <v>4.3600000000000003</v>
+        <v>4</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>1</v>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
-        <v>43.6</v>
+        <v>40</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>2</v>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
-        <v>54.500000000000007</v>
+        <v>50</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>2</v>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>45.78</v>
+        <v>42</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>2</v>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="D15" s="7">
         <f t="shared" si="0"/>
-        <v>54.500000000000007</v>
+        <v>50</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>1</v>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="D16" s="7">
         <f t="shared" si="0"/>
-        <v>163.5</v>
+        <v>150</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>1</v>

--- a/SF_Documents/tarifas.xlsx
+++ b/SF_Documents/tarifas.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="28395" windowHeight="12270" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="23256" windowHeight="12276" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Costo desarrollo" sheetId="1" r:id="rId1"/>
-    <sheet name="Costos software web" sheetId="2" r:id="rId2"/>
+    <sheet name="Analisys Cost" sheetId="3" r:id="rId1"/>
+    <sheet name="back end development costs" sheetId="1" r:id="rId2"/>
+    <sheet name="web development costs" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>modo</t>
   </si>
@@ -33,10 +34,6 @@
   </si>
   <si>
     <t>costo</t>
-  </si>
-  <si>
-    <t>Implementacion: Implementacion, testing en entornos diferentes
-instalacion de software requisitos</t>
   </si>
   <si>
     <t xml:space="preserve">Entorno Servicio de windows :
@@ -45,13 +42,6 @@
 </t>
   </si>
   <si>
-    <t>Coponentes Win 32 standars : no de baja complejdad grafica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inclucion de Componentes o bloques framework en desarrollos.
-</t>
-  </si>
-  <si>
     <t>Consultoria y servicio de soluciones para software de terceros para utilizacion  componentes framewor Fwk</t>
   </si>
   <si>
@@ -76,40 +66,13 @@
     <t>Son paginas donde el texto esta previamente editado y hay q incluirlo estáticamente en algún modulo</t>
   </si>
   <si>
-    <t>Paginas complejas – galería de imágenes</t>
-  </si>
-  <si>
-    <t>Paginas central customizada</t>
-  </si>
-  <si>
     <t>Componentes customizados</t>
   </si>
   <si>
-    <t>Son páginas de contenido sobre las que el cliente desea agregar algún contenido complejo. Ejemplo de estas painas son:</t>
-  </si>
-  <si>
-    <t>Base de datos inicial de negocio</t>
-  </si>
-  <si>
-    <t>Base de datos donde se cargan los contenidos dinámicos. Análisis, diseño, diagramación</t>
-  </si>
-  <si>
-    <t>Base de datos inicial de seguridad</t>
-  </si>
-  <si>
-    <t>Base de datos donde se cargan los usuarios del sistema dinámicos. Análisis, diseño, diagramación</t>
-  </si>
-  <si>
     <t>Modelo de seguridad</t>
   </si>
   <si>
     <t>Arquitectura de seguridad basado en usuarios y roles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paginas complejas – galería de imágenes  imagen adicional </t>
-  </si>
-  <si>
-    <t>Paginas que muestran un deslizador de imágenes. Incluye subida de imágenes y su configuración. También incluye la página contenedora. Y el formateado de la imagen  hasta 10 imágenes</t>
   </si>
   <si>
     <t>puntos</t>
@@ -159,19 +122,40 @@
 </t>
   </si>
   <si>
-    <t>Coponentes Win 32 basado en controles especiales Dexpress o Infrajistics u otros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compoente de negocio o
-logica del algoritmo, 
-Investigacion referente a la funcionalidad del servicio: Ejemplos
-Procesamiento por lotes de un origen de datos a otro (batch)
-Procesamiento de archivos (FileSQL) (SQL File) (FileFile)
-Validación de archivos, reformateo de archivos. etc
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servicios de avanzada:
+    <t xml:space="preserve">Costos análisis y consultoría </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análisis inicial </t>
+  </si>
+  <si>
+    <t>Sin costo</t>
+  </si>
+  <si>
+    <t>Análisis de modulos de negocio</t>
+  </si>
+  <si>
+    <t>Analisis y diseño de modulos de negocio  particulares de la empresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costos prototipado  </t>
+  </si>
+  <si>
+    <t>Prototipo de alta fidelidad</t>
+  </si>
+  <si>
+    <t> Representación limitada de un producto, permite a las partes probarlo en situaciones reales o explorar su uso, creando así un proceso de diseño de iteración que genera calidad.</t>
+  </si>
+  <si>
+    <t>Implica tiempos de reuniones para analizar requerimientos Tiempos de análisis lectura de material existente</t>
+  </si>
+  <si>
+    <t>tarifa</t>
+  </si>
+  <si>
+    <t>Modo</t>
+  </si>
+  <si>
+    <t>Servicios de avanzada:
 Servicios de arquitecturas varias (diferentes patrones ) que incluyen desarrollo relacionado a estos items:
 Asincronicidad
 Remoting
@@ -180,35 +164,71 @@
 servicios MSMQ
 Servicios MSMQ + WCF + procesamiento por lotes
 Servicios Socket Listeners 
+Web services</t>
+  </si>
+  <si>
+    <t>Coponentes Win 32 basado en controles especiales Dexpress ,Infrajistics u otros</t>
+  </si>
+  <si>
+    <t>Analisis y Diseño de base de datos correspondiente al modelo de negocio del sistema</t>
+  </si>
+  <si>
+    <t>Desarrollo</t>
+  </si>
+  <si>
+    <t>Implementacion</t>
+  </si>
+  <si>
+    <t>Analisis Diseño</t>
+  </si>
+  <si>
+    <t>Item Nro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paginas complejas – galería de imágenes componentes Asp net  java script, jquery
+Paginas Custmizadas </t>
+  </si>
+  <si>
+    <t>Paginas que muestran un deslizador de imágenes. Incluye subida de imágenes y su configuración. También incluye la página contenedora. Y el formateado de la imagen  hasta 10 imágenes
+Páginas de contenido sobre las que el cliente desea agregar algún contenido complejo. Ejemplo de estas painas son:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compoente de negocio o
+logica del algoritmo, 
+Investigacion referente a la funcionalidad del servicio: Ejemplos
+Procesamiento por lotes de un origen de datos a otro (batch)
+Procesamiento de archivos (FileSQL) (SQL File) (FileFile)
+Validación de archivos, reformateo de archivos. etc
+Coponentes Win 32 standars : no de baja complejdad grafica
+Desarrollo de servicios
+Interfaz de servicios
+Registro en metadata
+Logica de negocio
+Acceso a datos 
+Desarrollo de store procedures
+Esquema de datos
+etc
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Configuracion y armado de servicio SOA 
+    <t>Configuracion y armado de servicio SOA 
 Metadata de servicio
 Config de seguridad 
 Config Logueo
 Config de blocking transaccional
 Configuracion de bloque administrador de configuracion
 Herramientas admin de metadata de servicio
-Visores de errores
-</t>
-  </si>
-  <si>
-    <t>Desarrollo de servicios
-Interfaz de servicios
-Registro en metadata
-Logica de negocio
-Acceso a datos 
-Desarrollo de store procedures
-Esquema de datos
-etc</t>
+Visores de errores</t>
+  </si>
+  <si>
+    <t>Consultoria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +263,35 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF365F91"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -252,7 +301,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -340,11 +389,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -368,9 +473,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -384,23 +486,111 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -474,6 +664,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -508,6 +699,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -683,512 +875,583 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="2" max="2" width="60" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" customWidth="1"/>
+    <col min="6" max="6" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="90">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="D6" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="22"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="17">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D13" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="4:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="22"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E17" r:id="rId1" display="http://albertolacalle.com/diseno-iteracion.htm"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="60" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="29">
+        <v>200</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="13">
+        <f>100*$C$3</f>
+        <v>120</v>
+      </c>
+      <c r="E5" s="13">
+        <f>D5*$C$3</f>
+        <v>144</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="34">
+        <v>201</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="31">
+        <v>45</v>
+      </c>
+      <c r="E6" s="31">
+        <f>D6*$C$3</f>
+        <v>54</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="251.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="37"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+    </row>
+    <row r="10" spans="1:6" ht="187.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="35">
+        <v>202</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:5">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="75">
-      <c r="B9" s="13" t="s">
+      <c r="D10" s="36">
+        <v>60</v>
+      </c>
+      <c r="E10" s="36">
+        <f>D10*$C$3</f>
+        <v>72</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="29"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="29">
+        <v>207</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="14">
-        <f>100*$B$3</f>
-        <v>100</v>
-      </c>
-      <c r="D9" s="14">
-        <f>C9*$B$3</f>
-        <v>100</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="100.5" customHeight="1">
-      <c r="B10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="14">
-        <v>45</v>
-      </c>
-      <c r="D10" s="14">
-        <f>C10*$B$3</f>
-        <v>45</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="D12" s="13">
+        <v>60</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" ref="E12" si="0">D12*$C$3</f>
+        <v>72</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="188.25" customHeight="1">
-      <c r="B11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="14">
-        <v>60</v>
-      </c>
-      <c r="D11" s="14">
-        <f>C11*$B$3</f>
-        <v>60</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="43.5" customHeight="1">
-      <c r="B12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="14">
-        <v>40</v>
-      </c>
-      <c r="D12" s="14">
-        <f>C12*$B$3</f>
-        <v>40</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="46.5" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="14">
-        <v>40</v>
-      </c>
-      <c r="D13" s="14">
-        <f t="shared" ref="D13:D20" si="0">C13*$B$3</f>
-        <v>40</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="B14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="14">
-        <v>55</v>
-      </c>
-      <c r="D14" s="14">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="B16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0</v>
-      </c>
-      <c r="D16" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="2:5" ht="30">
-      <c r="B17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="14">
-        <v>60</v>
-      </c>
-      <c r="D17" s="14">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="2:5" ht="135">
-      <c r="B19" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="14">
-        <v>1000</v>
-      </c>
-      <c r="D19" s="14">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="120">
-      <c r="B20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="14">
-        <v>32</v>
-      </c>
-      <c r="D20" s="14">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="21.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A6:A8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E25"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" customWidth="1"/>
-    <col min="3" max="4" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" customWidth="1"/>
+    <col min="4" max="5" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="C2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35">
+        <v>100</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="42">
+        <v>1300</v>
+      </c>
+      <c r="E6" s="42">
+        <f>D6*$C$2</f>
+        <v>1560</v>
+      </c>
+      <c r="F6" s="43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="35">
+        <v>101</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="90.75" thickBot="1">
-      <c r="A6" s="5" t="s">
+      <c r="D7" s="42">
+        <v>100</v>
+      </c>
+      <c r="E7" s="42">
+        <f t="shared" ref="D7:E12" si="0">D7*$C$2</f>
+        <v>120</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="35">
+        <v>102</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1300</v>
-      </c>
-      <c r="D6" s="7">
-        <f>C6*$B$2</f>
-        <v>1300</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="42">
+        <v>100</v>
+      </c>
+      <c r="E8" s="42">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F8" s="43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45.75" thickBot="1">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="9" spans="1:6" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35">
+        <v>103</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="38">
+        <v>50</v>
+      </c>
+      <c r="E9" s="38">
+        <f>D9*$C$2</f>
+        <v>60</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="35">
+        <v>104</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7">
-        <v>100</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" ref="D7:D16" si="0">C7*$B$2</f>
-        <v>100</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7">
-        <v>100</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="101.25" customHeight="1" thickBot="1">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="6">
-        <v>100</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="77.25" customHeight="1" thickBot="1">
-      <c r="A11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7">
-        <v>40</v>
-      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="35">
+        <v>106</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="42" customHeight="1" thickBot="1">
-      <c r="A12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="6">
-        <v>50</v>
-      </c>
-      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35">
+        <v>108</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="42">
+        <v>150</v>
+      </c>
+      <c r="E12" s="42">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="96" customHeight="1" thickBot="1">
-      <c r="A13" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>300</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="16">
-        <v>42</v>
-      </c>
-      <c r="D13" s="7">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" hidden="1" thickBot="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" ht="45.75" thickBot="1">
-      <c r="A15" s="5" t="s">
+      <c r="D18" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>301</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="7">
-        <v>50</v>
-      </c>
-      <c r="D15" s="7">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A16" s="5" t="s">
+      <c r="D19" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>302</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="7">
-        <v>150</v>
-      </c>
-      <c r="D16" s="7">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="21" spans="1:3" ht="20.25" thickBot="1">
-      <c r="A21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>42</v>
+      <c r="D20" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>303</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SF_Documents/tarifas.xlsx
+++ b/SF_Documents/tarifas.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="23256" windowHeight="12276" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="23256" windowHeight="12276" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Analisys Cost" sheetId="3" r:id="rId1"/>
     <sheet name="back end development costs" sheetId="1" r:id="rId2"/>
     <sheet name="web development costs" sheetId="2" r:id="rId3"/>
+    <sheet name="Test" sheetId="4" r:id="rId4"/>
+    <sheet name="Hosting" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>modo</t>
   </si>
@@ -66,15 +68,6 @@
     <t>Son paginas donde el texto esta previamente editado y hay q incluirlo estáticamente en algún modulo</t>
   </si>
   <si>
-    <t>Componentes customizados</t>
-  </si>
-  <si>
-    <t>Modelo de seguridad</t>
-  </si>
-  <si>
-    <t>Arquitectura de seguridad basado en usuarios y roles</t>
-  </si>
-  <si>
     <t>puntos</t>
   </si>
   <si>
@@ -82,9 +75,6 @@
   </si>
   <si>
     <t>Implica el maquetado o estructura básica sobre la cual se montan las paginas. Esto incluye además Diseño grafico de Menues, colores bases, estilos ,maquetado, etc, contenedores de enlaces de columnas izquierda, controles de búsquedas de noticias etc.</t>
-  </si>
-  <si>
-    <t>Componentes dinamicos o que requieran un desarrollo adicional con jqery u otreo framework</t>
   </si>
   <si>
     <t>Test unitario</t>
@@ -170,16 +160,10 @@
     <t>Coponentes Win 32 basado en controles especiales Dexpress ,Infrajistics u otros</t>
   </si>
   <si>
-    <t>Analisis y Diseño de base de datos correspondiente al modelo de negocio del sistema</t>
-  </si>
-  <si>
     <t>Desarrollo</t>
   </si>
   <si>
     <t>Implementacion</t>
-  </si>
-  <si>
-    <t>Analisis Diseño</t>
   </si>
   <si>
     <t>Item Nro</t>
@@ -189,15 +173,45 @@
 Paginas Custmizadas </t>
   </si>
   <si>
-    <t>Paginas que muestran un deslizador de imágenes. Incluye subida de imágenes y su configuración. También incluye la página contenedora. Y el formateado de la imagen  hasta 10 imágenes
-Páginas de contenido sobre las que el cliente desea agregar algún contenido complejo. Ejemplo de estas painas son:</t>
+    <t>Configuracion y armado de servicio SOA 
+Metadata de servicio
+Config de seguridad 
+Config Logueo
+Config de blocking transaccional
+Configuracion de bloque administrador de configuracion
+Herramientas admin de metadata de servicio
+Visores de errores</t>
+  </si>
+  <si>
+    <t>Consultoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paginas que muestran un deslizador de imágenes. Incluye subida de imágenes y su configuración. También incluye la página contenedora. Y el formateado de la imagen  hasta 10 imágenes.
+Páginas de contenido sobre las que el cliente desea agregar algún contenido complejo. Ejemplo de estas painas son:
+ ABM (altas, bajas y modif) de noticias dinámicas
+ Listado dinámico de noticias
+ Buscador de noticias.
+Nota: Estos ya están incluidos en el proyecto depende de si los quieren incluir o no
+Depende complejidad
+Se estima por tiempo de desarrollo
+En caso de existir nuevas necesidades
+</t>
+  </si>
+  <si>
+    <t>Base de datos inicial de negocio
+Base de datos donde se cargan los contenidos dinámicos. Análisis, diseño, diagramación
+Base de datos donde se cargan los usuarios del sistema dinámicos. Análisis, diseño, diagramación
+Base de datos inicial de seguridad Memberships Profiles users, roles and rules</t>
+  </si>
+  <si>
+    <t>Desarrollo avanzado</t>
   </si>
   <si>
     <t xml:space="preserve">Compoente de negocio o
 logica del algoritmo, 
 Investigacion referente a la funcionalidad del servicio: Ejemplos
 Procesamiento por lotes de un origen de datos a otro (batch)
-Procesamiento de archivos (FileSQL) (SQL File) (FileFile)
+Procesamiento de archivos (File2SQL) (SQL2File) (File2File)
 Validación de archivos, reformateo de archivos. etc
 Coponentes Win 32 standars : no de baja complejdad grafica
 Desarrollo de servicios
@@ -211,24 +225,140 @@
 </t>
   </si>
   <si>
-    <t>Configuracion y armado de servicio SOA 
-Metadata de servicio
-Config de seguridad 
-Config Logueo
-Config de blocking transaccional
-Configuracion de bloque administrador de configuracion
-Herramientas admin de metadata de servicio
-Visores de errores</t>
-  </si>
-  <si>
-    <t>Consultoria</t>
+    <t>Costos diseño grafico</t>
+  </si>
+  <si>
+    <t>Animación de imágenes flash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño de imágenes nuevas para portadas y presentaciones no existente por expertos en herramientas graficas como: flash, photoshop, etc </t>
+  </si>
+  <si>
+    <t>Esto depende mucho del tipo de calidad y grafico.</t>
+  </si>
+  <si>
+    <t>Imágenes, flash</t>
+  </si>
+  <si>
+    <t>Hosting</t>
+  </si>
+  <si>
+    <t>Subida y configuración del sitio</t>
+  </si>
+  <si>
+    <t>Implica la subida del contenido inicial del sitio al servidor  del proveedor de hosting</t>
+  </si>
+  <si>
+    <t>Configuración de base de datos de seguridad y negocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuración de sitio web en </t>
+  </si>
+  <si>
+    <t>400 fijo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Subida de pagina nueva o modificación de existente a modulo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>existente</t>
+    </r>
+  </si>
+  <si>
+    <t>Esto es parte de mantención e implica de la subida y configuración de una nueva o existente página al sitio. El trabajo es el mismo para ambos.</t>
+  </si>
+  <si>
+    <t>A definir</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Subida de pagina nueva modulo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nuevo</t>
+    </r>
+  </si>
+  <si>
+    <t>Paginas del nuevo modulo solo se cobra por el modulo y se descuentan las paginas</t>
+  </si>
+  <si>
+    <t>Servicio de hosting y registro de dominios</t>
+  </si>
+  <si>
+    <t>Representa el servicio por parte de un proveedor de servidores de internet y base de datos para poder subir el sitio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depende del proveedor y calidad de servicio. </t>
+  </si>
+  <si>
+    <t>Hay algunos que cuestan 160,250 o 350 anuales</t>
+  </si>
+  <si>
+    <t>Es sin costo si se instala en la empresa</t>
+  </si>
+  <si>
+    <t>igual a desarrollo</t>
+  </si>
+  <si>
+    <r>
+      <t>Testing -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pruebas de software</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Concepto rápido: </t>
+  </si>
+  <si>
+    <t>Son  los procesos que permiten verificar y revelar la calidad de un producto software. Son utilizadas para identificar posibles fallos de implementación, calidad, usabilidad etc. El testing es una de las etapas críticas del ciclo de vida de un proyecto y ayuda a reducir errores en la puesta en producción.</t>
+  </si>
+  <si>
+    <t>Vamos a hacer testing lo más informal posible dado su costo. Cabe aclarar que No genera la misma calidad que un testing profesional. Pero dado que contamos con tiempo y el proyecto es un tanto informal podemos hacer un testing de desarrollo en entornos de laboratorio simples.</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,18 +380,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF365F91"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -292,16 +410,110 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF365F91"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -375,21 +587,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -399,20 +596,144 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -420,40 +741,42 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -463,36 +786,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -501,22 +801,181 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -525,54 +984,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -888,68 +1370,71 @@
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" customWidth="1"/>
     <col min="5" max="5" width="34.88671875" customWidth="1"/>
-    <col min="6" max="6" width="48.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1">
         <v>1.2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+    </row>
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D10" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="71"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="75"/>
+    </row>
+    <row r="12" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>300</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-    </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D10" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="22"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="17">
+      <c r="F12" s="7">
         <v>100</v>
       </c>
       <c r="G12" t="s">
@@ -957,44 +1442,44 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D13" s="16" t="s">
-        <v>37</v>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="15"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="76" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
     </row>
     <row r="17" spans="4:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="25" t="s">
+      <c r="D17" s="70" t="s">
         <v>34</v>
       </c>
+      <c r="E17" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="22"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="26"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1020,184 +1505,234 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="11"/>
+    <row r="1" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="36">
+        <v>200</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="38">
+        <f>100*$C$3</f>
+        <v>200</v>
+      </c>
+      <c r="E5" s="38">
+        <f>D5*$C$3</f>
+        <v>400</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="78">
+        <v>201</v>
+      </c>
+      <c r="B6" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="C3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="C6" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="78">
+        <v>48</v>
+      </c>
+      <c r="E6" s="78">
+        <f>D6*$C$3</f>
+        <v>96</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="251.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="79"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="82"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="79"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="82"/>
+    </row>
+    <row r="9" spans="1:6" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="44"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="83"/>
+    </row>
+    <row r="10" spans="1:6" ht="187.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="47">
+        <v>202</v>
+      </c>
+      <c r="B10" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="29">
+      <c r="C10" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="49">
+        <v>90</v>
+      </c>
+      <c r="E10" s="49">
+        <f>D10*$C$3</f>
+        <v>180</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="52"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
+    </row>
+    <row r="12" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="57">
+        <v>203</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="59">
+        <v>100</v>
+      </c>
+      <c r="E12" s="59">
+        <f t="shared" ref="E12" si="0">D12*$C$3</f>
         <v>200</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="13">
-        <f>100*$C$3</f>
-        <v>120</v>
-      </c>
-      <c r="E5" s="13">
-        <f>D5*$C$3</f>
-        <v>144</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="34">
-        <v>201</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="31">
-        <v>45</v>
-      </c>
-      <c r="E6" s="31">
-        <f>D6*$C$3</f>
-        <v>54</v>
-      </c>
-      <c r="F6" s="31" t="s">
+      <c r="F12" s="60" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="251.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-    </row>
-    <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-    </row>
-    <row r="10" spans="1:6" ht="187.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="35">
-        <v>202</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="36">
-        <v>60</v>
-      </c>
-      <c r="E10" s="36">
-        <f>D10*$C$3</f>
-        <v>72</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="29">
-        <v>207</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="13">
-        <v>60</v>
-      </c>
-      <c r="E12" s="13">
-        <f t="shared" ref="E12" si="0">D12*$C$3</f>
-        <v>72</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>2</v>
-      </c>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="F6:F9"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -1208,15 +1743,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="45.44140625" customWidth="1"/>
-    <col min="4" max="5" width="30.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1224,234 +1760,428 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="65">
+        <v>100</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="68">
+        <v>1300</v>
+      </c>
+      <c r="E6" s="68">
+        <f>D6*$C$2</f>
+        <v>1950</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="79">
+        <v>103</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="64"/>
+    </row>
+    <row r="8" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="79"/>
+      <c r="B8" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="88">
+        <v>60</v>
+      </c>
+      <c r="E8" s="88">
+        <f>D8*$C$2</f>
+        <v>90</v>
+      </c>
+      <c r="F8" s="90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="79"/>
+      <c r="B9" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="90"/>
+    </row>
+    <row r="10" spans="1:6" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="79"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="90"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="79"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="90"/>
+    </row>
+    <row r="12" spans="1:6" ht="103.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="79"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="91"/>
+    </row>
+    <row r="17" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
+        <v>104</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="19"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="87"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="28.77734375" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:8" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="F1" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F2" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F3" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F4" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="5:8" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="35">
-        <v>100</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="H8" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>301</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="42">
-        <v>1300</v>
-      </c>
-      <c r="E6" s="42">
-        <f>D6*$C$2</f>
-        <v>1560</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35">
-        <v>101</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="42">
-        <v>100</v>
-      </c>
-      <c r="E7" s="42">
-        <f t="shared" ref="D7:E12" si="0">D7*$C$2</f>
-        <v>120</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35">
-        <v>102</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="42">
-        <v>100</v>
-      </c>
-      <c r="E8" s="42">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35">
-        <v>103</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="38">
-        <v>50</v>
-      </c>
-      <c r="E9" s="38">
-        <f>D9*$C$2</f>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>302</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>303</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:F20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+    </row>
+    <row r="10" spans="4:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="96"/>
+      <c r="E11" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="97"/>
+    </row>
+    <row r="12" spans="4:6" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="71"/>
+      <c r="E12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="35">
-        <v>104</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="35">
-        <v>106</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35">
-        <v>108</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="42">
-        <v>150</v>
-      </c>
-      <c r="E12" s="42">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>300</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="F12" s="75"/>
+    </row>
+    <row r="13" spans="4:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="71"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+    </row>
+    <row r="15" spans="4:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>301</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>302</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>303</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>30</v>
-      </c>
+    <row r="16" spans="4:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="96"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="96"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="4:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="71"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
+  <mergeCells count="10">
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SF_Documents/tarifas.xlsx
+++ b/SF_Documents/tarifas.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="23256" windowHeight="12276" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="23256" windowHeight="12276" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Analisys Cost" sheetId="3" r:id="rId1"/>
@@ -1361,7 +1361,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1507,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E9"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1743,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2053,7 +2053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>

--- a/SF_Documents/tarifas.xlsx
+++ b/SF_Documents/tarifas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="23256" windowHeight="12276" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="23256" windowHeight="12276"/>
   </bookViews>
   <sheets>
     <sheet name="Analisys Cost" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
   <si>
     <t>modo</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Mismo cosco q desarrollo</t>
   </si>
 </sst>
 </file>
@@ -775,7 +778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1054,6 +1057,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1360,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1472,8 +1478,8 @@
       <c r="E17" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="74" t="s">
-        <v>30</v>
+      <c r="F17" s="100" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1507,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1591,8 +1597,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="78">
-        <f>D6*$C$3</f>
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F6" s="81" t="s">
         <v>2</v>
@@ -1642,7 +1647,6 @@
         <v>90</v>
       </c>
       <c r="E10" s="49">
-        <f>D10*$C$3</f>
         <v>180</v>
       </c>
       <c r="F10" s="50" t="s">
@@ -1743,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1798,8 +1802,7 @@
         <v>1300</v>
       </c>
       <c r="E6" s="68">
-        <f>D6*$C$2</f>
-        <v>1950</v>
+        <v>2000</v>
       </c>
       <c r="F6" s="69" t="s">
         <v>1</v>
@@ -1831,8 +1834,7 @@
         <v>60</v>
       </c>
       <c r="E8" s="88">
-        <f>D8*$C$2</f>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F8" s="90" t="s">
         <v>2</v>
@@ -2053,7 +2055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>

--- a/SF_Documents/tarifas.xlsx
+++ b/SF_Documents/tarifas.xlsx
@@ -4,21 +4,84 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="23256" windowHeight="12276"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="23256" windowHeight="12276" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Analisys Cost" sheetId="3" r:id="rId1"/>
     <sheet name="back end development costs" sheetId="1" r:id="rId2"/>
-    <sheet name="web development costs" sheetId="2" r:id="rId3"/>
-    <sheet name="Test" sheetId="4" r:id="rId4"/>
-    <sheet name="Hosting" sheetId="5" r:id="rId5"/>
+    <sheet name="Test" sheetId="4" r:id="rId3"/>
+    <sheet name="Hosting" sheetId="5" r:id="rId4"/>
+    <sheet name="Tarifas" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>marcelo</author>
+  </authors>
+  <commentList>
+    <comment ref="C11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>marcelo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+"Configuracion y armado de servicio SOA
+Metadata de servicio
+Config de seguridad 
+Config Logueo
+Config de blocking transaccional
+Configuracion de bloque administrador de configuracion
+Herramientas admin de metadata de servicio
+Visores de errores"
+Compoentes de negocio o
+logica del algoritmo, 
+Investigacion referente a la funcionalidad del servicio: Ejemplos 
+Procesamiento por lotes de un origen de datos a otro (batch)
+Procesamiento de archivos (File2SQL) (SQL2File) (File2File)
+Validación de archivos, reformateo de archivos. etc 
+Coponentes Win 32 standars : no de baja complejdad grafica
+Desarrollo de servicios
+Interfaz de servicios
+Registro en metadata
+Logica de negocio
+Acceso a datos
+Desarrollo de store procedures
+Esquema de datos
+etc
+Coponentes Win 32 basado en controles especiales Dexpress ,Infrajistics u otros
+Base de datos inicial de negocio
+Base de datos donde se cargan los contenidos dinámicos.
+Análisis, diseño, diagramación 
+Base de datos donde se cargan los usuarios del sistema dinámicos. 
+Análisis, diseño, diagramación
+Base de datos inicial de seguridad Memberships Profiles users, roles and rules</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
   <si>
     <t>modo</t>
   </si>
@@ -30,9 +93,6 @@
   </si>
   <si>
     <t>Puntos</t>
-  </si>
-  <si>
-    <t>Costo de punto</t>
   </si>
   <si>
     <t>costo</t>
@@ -54,21 +114,6 @@
   </si>
   <si>
     <t>Desarrollo estático</t>
-  </si>
-  <si>
-    <t>Nuevo modulo creación del modulo</t>
-  </si>
-  <si>
-    <t>Implica generación de nuevo modulo sin contenido. Solo se agregan las páginas y menues bases y paginas maestras.</t>
-  </si>
-  <si>
-    <t>Pagina simple texto central</t>
-  </si>
-  <si>
-    <t>Son paginas donde el texto esta previamente editado y hay q incluirlo estáticamente en algún modulo</t>
-  </si>
-  <si>
-    <t>puntos</t>
   </si>
   <si>
     <t>Costo</t>
@@ -169,10 +214,6 @@
     <t>Item Nro</t>
   </si>
   <si>
-    <t xml:space="preserve">Paginas complejas – galería de imágenes componentes Asp net  java script, jquery
-Paginas Custmizadas </t>
-  </si>
-  <si>
     <t>Configuracion y armado de servicio SOA 
 Metadata de servicio
 Config de seguridad 
@@ -184,18 +225,6 @@
   </si>
   <si>
     <t>Consultoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paginas que muestran un deslizador de imágenes. Incluye subida de imágenes y su configuración. También incluye la página contenedora. Y el formateado de la imagen  hasta 10 imágenes.
-Páginas de contenido sobre las que el cliente desea agregar algún contenido complejo. Ejemplo de estas painas son:
- ABM (altas, bajas y modif) de noticias dinámicas
- Listado dinámico de noticias
- Buscador de noticias.
-Nota: Estos ya están incluidos en el proyecto depende de si los quieren incluir o no
-Depende complejidad
-Se estima por tiempo de desarrollo
-En caso de existir nuevas necesidades
-</t>
   </si>
   <si>
     <t>Base de datos inicial de negocio
@@ -223,21 +252,6 @@
 Esquema de datos
 etc
 </t>
-  </si>
-  <si>
-    <t>Costos diseño grafico</t>
-  </si>
-  <si>
-    <t>Animación de imágenes flash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diseño de imágenes nuevas para portadas y presentaciones no existente por expertos en herramientas graficas como: flash, photoshop, etc </t>
-  </si>
-  <si>
-    <t>Esto depende mucho del tipo de calidad y grafico.</t>
-  </si>
-  <si>
-    <t>Imágenes, flash</t>
   </si>
   <si>
     <t>Hosting</t>
@@ -356,12 +370,119 @@
   <si>
     <t>Mismo cosco q desarrollo</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="BrowalliaUPC"/>
+        <family val="2"/>
+      </rPr>
+      <t>Servicios de avanzada:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="BrowalliaUPC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Servicios de arquitecturas varias (diferentes patrones ) que incluyen desarrollo relacionado a estos items:
+Asincronicidad
+Remoting
+Tipacion liviana 
+Servicios de windows communication foundation (WCF)
+servicios MSMQ
+Servicios MSMQ + WCF + procesamiento por lotes
+Servicios Socket Listeners 
+Web services
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantenimiento de proyecto </t>
+  </si>
+  <si>
+    <t>Mantenimiento de  servidor
+Mantenimiento de codigo fuente
+Archivos de analisis
+Relevamientos 
+Servidores SQL Bases de datos desarrollo Testing
+Servidores IIS Sitio web</t>
+  </si>
+  <si>
+    <t>Desarollo web</t>
+  </si>
+  <si>
+    <t>Desarrollo de contenido web: 
+jquery
+javascript
+html
+css style
+Maquetados 
+Diseños interfaz
+code behind asp.net</t>
+  </si>
+  <si>
+    <t>Todo desarrollo que no sea web EJ Base de datos
+Servicios bases, transacciones a BD, winforms etc</t>
+  </si>
+  <si>
+    <t>Analisis/Dis</t>
+  </si>
+  <si>
+    <t>Documentacion, Analisis de negocio, 
+Diseño, Análisis de arquitectura</t>
+  </si>
+  <si>
+    <t>sin costo para cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Preparacion de desplegablñe preproduccion produccion y/o testing
+Entorno Servicio de windows :
+Instalador msi
+Componentes bat 
+Instalaciones y configuración de SO, IIS, SQL Server, SPks, Frameworks
+Configuración de entornos de seguridad
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="3" tint="-0.249977111117893"/>
+        <rFont val="BrowalliaUPC"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fwk Framework</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="BrowalliaUPC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,19 +584,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.14999847407452621"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.14999847407452621"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
@@ -488,6 +596,55 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="BrowalliaUPC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="BrowalliaUPC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="BrowalliaUPC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -670,19 +827,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -773,12 +917,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -823,23 +982,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -855,19 +997,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -885,7 +1015,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -894,9 +1024,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -924,7 +1054,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,33 +1072,46 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -981,71 +1124,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1057,9 +1173,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1075,6 +1188,68 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="1 Rectángulo redondeado"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3975735" y="108585"/>
+          <a:ext cx="2947035" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="2400"/>
+            <a:t>Build III</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1366,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1381,7 +1556,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <v>1.2</v>
@@ -1389,59 +1564,59 @@
     </row>
     <row r="6" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="D6" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>5</v>
+      <c r="F8" s="68" t="s">
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
     </row>
     <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D10" s="70" t="s">
-        <v>29</v>
+      <c r="D10" s="62" t="s">
+        <v>23</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="74" t="s">
         <v>30</v>
       </c>
+      <c r="F10" s="70" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="71"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="75"/>
+      <c r="F11" s="67"/>
     </row>
     <row r="12" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>300</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
         <v>2</v>
@@ -1449,43 +1624,43 @@
     </row>
     <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="D13" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="76" t="s">
-        <v>5</v>
+      <c r="F15" s="68" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
     </row>
     <row r="17" spans="4:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="100" t="s">
-        <v>78</v>
+      <c r="D17" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="71"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="75"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1513,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1530,155 +1705,155 @@
     <row r="1" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="34" t="s">
+      <c r="A4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
+        <v>200</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="36">
-        <v>200</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="38">
+      <c r="D5" s="25">
         <f>100*$C$3</f>
         <v>200</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="25">
         <f>D5*$C$3</f>
         <v>400</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78">
+      <c r="A6" s="71">
         <v>201</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="71">
+        <v>48</v>
+      </c>
+      <c r="E6" s="71">
+        <v>88</v>
+      </c>
+      <c r="F6" s="74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="251.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="72"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="75"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="72"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="75"/>
+    </row>
+    <row r="9" spans="1:6" ht="229.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="76"/>
+    </row>
+    <row r="10" spans="1:6" ht="187.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="34">
+        <v>202</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="78">
-        <v>48</v>
-      </c>
-      <c r="E6" s="78">
-        <v>75</v>
-      </c>
-      <c r="F6" s="81" t="s">
+      <c r="C10" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="36">
+        <v>90</v>
+      </c>
+      <c r="E10" s="36">
+        <v>200</v>
+      </c>
+      <c r="F10" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="251.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="82"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="82"/>
-    </row>
-    <row r="9" spans="1:6" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="83"/>
-    </row>
-    <row r="10" spans="1:6" ht="187.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
-        <v>202</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="48" t="s">
+    <row r="11" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="44">
+        <v>203</v>
+      </c>
+      <c r="B12" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="49">
-        <v>90</v>
-      </c>
-      <c r="E10" s="49">
-        <v>180</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
-    </row>
-    <row r="12" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="57">
-        <v>203</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="59">
+      <c r="C12" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="46">
         <v>100</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="46">
         <f t="shared" ref="E12" si="0">D12*$C$3</f>
         <v>200</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="47" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1745,208 +1920,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="65">
-        <v>100</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="68">
-        <v>1300</v>
-      </c>
-      <c r="E6" s="68">
-        <v>2000</v>
-      </c>
-      <c r="F6" s="69" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="79">
-        <v>103</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64"/>
-    </row>
-    <row r="8" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
-      <c r="B8" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="88">
-        <v>60</v>
-      </c>
-      <c r="E8" s="88">
-        <v>80</v>
-      </c>
-      <c r="F8" s="90" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="79"/>
-      <c r="B9" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="94" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="90"/>
-    </row>
-    <row r="10" spans="1:6" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="90"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="79"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="90"/>
-    </row>
-    <row r="12" spans="1:6" ht="103.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="79"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="91"/>
-    </row>
-    <row r="17" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
-        <v>104</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="19"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:H11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1959,35 +1936,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:8" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="F1" s="26" t="s">
-        <v>73</v>
+      <c r="F1" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="5:8" x14ac:dyDescent="0.3">
       <c r="F2" s="5" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F3" s="27" t="s">
-        <v>75</v>
+      <c r="F3" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="5:8" x14ac:dyDescent="0.3">
       <c r="F4" s="5" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="5:8" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="5:8" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>16</v>
+      <c r="H7" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="5:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1995,13 +1972,13 @@
         <v>300</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="5:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2009,13 +1986,13 @@
         <v>301</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="5:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2023,13 +2000,13 @@
         <v>302</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="5:8" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2037,13 +2014,13 @@
         <v>303</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2051,12 +2028,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:F20"/>
+  <dimension ref="D7:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2068,109 +2045,123 @@
   <sheetData>
     <row r="7" spans="4:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="98" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="98" t="s">
-        <v>5</v>
+      <c r="F8" s="81" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
     </row>
     <row r="10" spans="4:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="74" t="s">
-        <v>61</v>
+      <c r="D10" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="4:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="96"/>
-      <c r="E11" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="97"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="80"/>
     </row>
     <row r="12" spans="4:6" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="71"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="75"/>
+        <v>47</v>
+      </c>
+      <c r="F12" s="67"/>
     </row>
     <row r="13" spans="4:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="74" t="s">
-        <v>64</v>
+      <c r="D13" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="4:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="71"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
     </row>
     <row r="15" spans="4:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="10" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="4:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="70" t="s">
+      <c r="D16" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="4:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="63"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="22" spans="4:7" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="D22" s="48">
+        <v>203</v>
+      </c>
+      <c r="E22" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="F22" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="96"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="96"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="4:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="71"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D20" s="5"/>
+      <c r="G22" s="51">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2187,4 +2178,165 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="53">
+        <v>100</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="51">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="48">
+        <v>103</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="51">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="128.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="53">
+        <v>200</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="51">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="48">
+        <v>201</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="51">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="187.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="48">
+        <v>202</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="48">
+        <v>203</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="51">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="59.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="53">
+        <v>300</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="51">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="53">
+        <v>301</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>